--- a/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.765561909503274</v>
+        <v>-6.435081261590075</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.911675030166077</v>
+        <v>-6.162577660460317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.989088860763739</v>
+        <v>-4.584985044912622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.156630695013341</v>
+        <v>-8.730255531465007</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.236076658918052</v>
+        <v>-4.297188143195481</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.299386904481613</v>
+        <v>-6.200789983265639</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.4751781398904118</v>
+        <v>-0.5729675805390186</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.155629499295576</v>
+        <v>0.2904652578473491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.246565113091489</v>
+        <v>4.966852991298964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.8429359124125924</v>
+        <v>-0.7598764357210088</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.118594384007349</v>
+        <v>1.137620406708411</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.336536731246685</v>
+        <v>-0.9376177740190373</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9345686010519134</v>
+        <v>-0.9428332632846794</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9116992380169435</v>
+        <v>-0.9105822918348412</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4791950468992393</v>
+        <v>-0.4797339329440041</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8641134855244367</v>
+        <v>-0.8550935720204639</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5635994166287877</v>
+        <v>-0.5648659097942255</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8147701030810017</v>
+        <v>-0.7989615781000667</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0719099222517421</v>
+        <v>0.1129909501665006</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3441819553635654</v>
+        <v>0.364208379076813</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8325116922191486</v>
+        <v>0.9257976198290001</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.07637666499648278</v>
+        <v>-0.09804029220264956</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2572000731431286</v>
+        <v>0.2779556169730077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2084865140216343</v>
+        <v>-0.2125841599005084</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.0788222964653</v>
+        <v>-2.052601505589045</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.191122472444704</v>
+        <v>-3.197748795148154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.633949038954129</v>
+        <v>-5.882990281114025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.201990978349121</v>
+        <v>-8.652286000121453</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.469446332362285</v>
+        <v>-3.379442573609879</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.386847806711838</v>
+        <v>-5.061094073661457</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9949752412274037</v>
+        <v>1.125210006624104</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8846012546148598</v>
+        <v>-0.8004841069022319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.2559072594933597</v>
+        <v>-0.5437992979217748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.932273713970286</v>
+        <v>-3.898825496516068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3553662239392208</v>
+        <v>-0.2441073693325052</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.703731622148434</v>
+        <v>-2.577493434753854</v>
       </c>
     </row>
     <row r="13">
@@ -873,20 +873,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7800456655077771</v>
+        <v>-0.7670378528855221</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.7107727070560145</v>
+        <v>-0.7349632141427048</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.9752030285449326</v>
+        <v>-0.9749957669446629</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6908546385113408</v>
+        <v>-0.6879811534260697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9817588789026428</v>
+        <v>-0.9793412885876408</v>
       </c>
     </row>
     <row r="15">
@@ -897,20 +897,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.066829015873103</v>
+        <v>1.576489174594575</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>0.1017855590279081</v>
+        <v>-0.07689249393113447</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.7247827422192463</v>
+        <v>-0.7220755456414607</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09600040666393041</v>
+        <v>-0.06509901404853938</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.7779865041545727</v>
+        <v>-0.7688527130648587</v>
       </c>
     </row>
     <row r="16">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9007541114109449</v>
+        <v>-0.896083116046866</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.213620199679946</v>
+        <v>-1.224439228240421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.338409509809834</v>
+        <v>-4.991395930448586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.657481613620958</v>
+        <v>-5.913416376418992</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.63994738474886</v>
+        <v>-2.773627016117722</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.098074347202066</v>
+        <v>-3.185119411063964</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.507839938936676</v>
+        <v>1.776600929406323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6521951150426437</v>
+        <v>0.6353405978639047</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.257791779646686</v>
+        <v>2.654206628403822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.995038688812347</v>
+        <v>1.879658347873403</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.805284835531247</v>
+        <v>1.757943398673588</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.045068046507016</v>
+        <v>0.8704793926483273</v>
       </c>
     </row>
     <row r="19">
@@ -1031,16 +1031,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.5318355120406408</v>
+        <v>-0.5032548560205167</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.546625264965349</v>
+        <v>-0.5773700930738637</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4809606316669338</v>
+        <v>-0.4791758950487109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5606967194982444</v>
+        <v>-0.5729907458660561</v>
       </c>
     </row>
     <row r="21">
@@ -1053,16 +1053,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>0.3565119790458073</v>
+        <v>0.4244921375459341</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3584993897294082</v>
+        <v>0.2995729466884349</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5815210643253698</v>
+        <v>0.5370455205132851</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3086499713588399</v>
+        <v>0.2506684683504452</v>
       </c>
     </row>
     <row r="22">
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.58898826042241</v>
+        <v>-3.51264430411503</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.214672415770255</v>
+        <v>-3.5153132229372</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.643900010270166</v>
+        <v>-7.209334545903763</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.284319057634161</v>
+        <v>-8.397683917184816</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.591746605741745</v>
+        <v>-4.77393686247484</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.131623084805421</v>
+        <v>-5.454862286080423</v>
       </c>
     </row>
     <row r="24">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4291119580212951</v>
+        <v>-0.434092314513767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2595188390410605</v>
+        <v>-0.04392674168440244</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1962371590399739</v>
+        <v>-0.5973489152848409</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.367648561429102</v>
+        <v>-2.293748689067653</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.9446965368682275</v>
+        <v>-0.9790861092989713</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.532748150439833</v>
+        <v>-1.607700692783521</v>
       </c>
     </row>
     <row r="25">
@@ -1180,23 +1180,21 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7383191737023324</v>
+        <v>-0.7472650070737469</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8576436768147748</v>
+        <v>-0.850617156507921</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7808248709561477</v>
+        <v>-0.7688222230227122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8320011355717091</v>
+        <v>-0.8529635640630174</v>
       </c>
     </row>
     <row r="27">
@@ -1206,23 +1204,21 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>0.8928285814350064</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>1.204421336140114</v>
+        <v>0.5389243496671691</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.03497538169912903</v>
+        <v>-0.05164303723220418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3775151144258923</v>
+        <v>-0.3124281446357455</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.244189438365419</v>
+        <v>-0.2332220294494442</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3657719722421276</v>
+        <v>-0.3631211001712252</v>
       </c>
     </row>
     <row r="28">
@@ -1263,22 +1259,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.393524719110435</v>
+        <v>-4.546629644041376</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.102062674924515</v>
+        <v>-4.284580071576511</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.788488498921847</v>
+        <v>-9.824937043618311</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.3159318122792</v>
+        <v>-11.01538119994799</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.180110984452758</v>
+        <v>-6.102107995989113</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.350668406474261</v>
+        <v>-6.465632975417073</v>
       </c>
     </row>
     <row r="30">
@@ -1289,22 +1285,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.121207470397788</v>
+        <v>0.8468938030042623</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.34184051326086</v>
+        <v>1.282713674372083</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.015147715127308</v>
+        <v>-0.9420418215026989</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.702296590017183</v>
+        <v>-2.689247644501072</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.10176539069421</v>
+        <v>-0.563605185754915</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.526358825876494</v>
+        <v>-1.251547787129947</v>
       </c>
     </row>
     <row r="31">
@@ -1343,18 +1339,20 @@
       <c r="C32" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="D32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E32" s="6" t="n">
-        <v>-0.895359145400843</v>
+        <v>-0.8777132204880145</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9653343590341271</v>
+        <v>-0.9658201564858947</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8691608543975938</v>
+        <v>-0.8570183836553089</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.9179336371173507</v>
+        <v>-0.910771890740082</v>
       </c>
     </row>
     <row r="33">
@@ -1365,20 +1363,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.978472063365389</v>
-      </c>
-      <c r="D33" s="6" t="inlineStr"/>
+        <v>1.677127480671983</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>2.208599653936234</v>
+      </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1254960400313705</v>
+        <v>-0.1128974856687025</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.459087728173084</v>
+        <v>-0.4388691537450136</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2087261018853174</v>
+        <v>-0.09062387321726097</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3645920392831674</v>
+        <v>-0.2748288204220395</v>
       </c>
     </row>
     <row r="34">
@@ -1419,22 +1419,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6766812540810494</v>
+        <v>0.3518374282634433</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2921366070391269</v>
+        <v>-0.3265305718022053</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-10.57904224650631</v>
+        <v>-10.891230109888</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-15.30644168367021</v>
+        <v>-15.56326314398952</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.812545359838121</v>
+        <v>-4.701632049856099</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.888788496270789</v>
+        <v>-7.29008844112111</v>
       </c>
     </row>
     <row r="36">
@@ -1445,22 +1445,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.1502172968801</v>
+        <v>3.905588555968802</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.586621015224706</v>
+        <v>2.576537442320573</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.094721390772474</v>
+        <v>-1.062702306089397</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-6.931934453289427</v>
+        <v>-7.381916451605219</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.6646431864651211</v>
+        <v>0.5070153410877734</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-3.298008770094939</v>
+        <v>-3.192546696801648</v>
       </c>
     </row>
     <row r="37">
@@ -1499,16 +1499,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.7309606447508535</v>
+        <v>-0.720704828884526</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.9765394738626205</v>
+        <v>-0.9767862942122901</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6124168445741976</v>
+        <v>-0.6059462737820845</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.9460270310593319</v>
+        <v>-0.9351109344614531</v>
       </c>
     </row>
     <row r="39">
@@ -1521,16 +1521,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>-0.06963883482955148</v>
+        <v>-0.08354464864701221</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.7471120445168168</v>
+        <v>-0.7500702125739445</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1611677421602589</v>
+        <v>0.1355366802038501</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.5914602977343612</v>
+        <v>-0.6282271707392891</v>
       </c>
     </row>
     <row r="40">
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1503089155267568</v>
+        <v>0.2215747528942933</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.9227056372737976</v>
+        <v>-0.8932615582123741</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.277726701266956</v>
+        <v>-2.825129158458538</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.74512499018514</v>
+        <v>-8.904133913624554</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.9566818212435703</v>
+        <v>-0.8251020767514692</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.489319862445875</v>
+        <v>-4.452225206129713</v>
       </c>
     </row>
     <row r="42">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.49269119202325</v>
+        <v>3.310704248473232</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.209848253394813</v>
+        <v>1.340845853577035</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.292094820446071</v>
+        <v>3.617298937392524</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.508916947663355</v>
+        <v>-3.80218020259232</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.760047658918891</v>
+        <v>2.751020582374822</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.575239290631758</v>
+        <v>-1.745373056309134</v>
       </c>
     </row>
     <row r="43">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1732393805163815</v>
+        <v>-0.3677193991237405</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7787014502756576</v>
+        <v>-0.7942924195645185</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3121794028902796</v>
+        <v>-0.2672311504354959</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8198303723074604</v>
+        <v>-0.8112854326409304</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.161531274940613</v>
+        <v>-0.1644446206299541</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7542773629356089</v>
+        <v>-0.7620972119169519</v>
       </c>
     </row>
     <row r="45">
@@ -1675,22 +1675,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>13.10520103588813</v>
+        <v>9.781530754636067</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>5.199253294565735</v>
+        <v>5.333129179694195</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4312669686224629</v>
+        <v>0.5038246710443042</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.4661733611754755</v>
+        <v>-0.4826454711220584</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7020907382377556</v>
+        <v>0.7089290305569713</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3518355672327064</v>
+        <v>-0.3923563594877696</v>
       </c>
     </row>
     <row r="46">
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.2914328878385471</v>
+        <v>0.0613885739278944</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.683681758009655</v>
+        <v>-3.874701760792401</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.16999682534539</v>
+        <v>3.050164209791987</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.557534956527698</v>
+        <v>-1.584908009859108</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.520022927518689</v>
+        <v>2.492027982766896</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.162040680938874</v>
+        <v>-2.197793754719256</v>
       </c>
     </row>
     <row r="48">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.792313896638188</v>
+        <v>4.646439100780372</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.4935049944066028</v>
+        <v>-0.6975372502230113</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9.210520497284037</v>
+        <v>8.758550900571413</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.369119505557677</v>
+        <v>3.145512016912091</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.06462959387827</v>
+        <v>6.219791693599168</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.7252291225514819</v>
+        <v>0.8963320780604614</v>
       </c>
     </row>
     <row r="49">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.06354937026770884</v>
+        <v>-0.01331169214530607</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.7855500108094773</v>
+        <v>-0.7974952810705672</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4198896913455114</v>
+        <v>0.3787673340863356</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2141477087212588</v>
+        <v>-0.2134520738327965</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.4141386752386517</v>
+        <v>0.4036917465964229</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3722525614516626</v>
+        <v>-0.3758657521101445</v>
       </c>
     </row>
     <row r="51">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.867232321165506</v>
+        <v>1.675049503568758</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1178131291782597</v>
+        <v>-0.1961198458383548</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.80561626838204</v>
+        <v>1.691367518367824</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6947126008908824</v>
+        <v>0.6144476063785385</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.425431147807171</v>
+        <v>1.482618653665573</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1936021882319292</v>
+        <v>0.2370206459788938</v>
       </c>
     </row>
     <row r="52">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.21131036495634</v>
+        <v>-0.2228402383893007</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.632122879429492</v>
+        <v>-1.705955495438767</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.692770044869533</v>
+        <v>-1.839053697628323</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-5.445216589310237</v>
+        <v>-5.441478349126013</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.6988399293684993</v>
+        <v>-0.6570513005777088</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-3.302118656366956</v>
+        <v>-3.28256149988485</v>
       </c>
     </row>
     <row r="54">
@@ -1917,22 +1917,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.317570284694427</v>
+        <v>1.238803877077581</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.4311560697714534</v>
+        <v>-0.4754106592013124</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.9252282594893593</v>
+        <v>0.8396041541985717</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-3.22201609182813</v>
+        <v>-3.207557586303284</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.7905818759629958</v>
+        <v>0.8414808120918521</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.991661128619407</v>
+        <v>-2.048057147215487</v>
       </c>
     </row>
     <row r="55">
@@ -1969,22 +1969,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1040297280920146</v>
+        <v>-0.09368429509001239</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.7005470392394185</v>
+        <v>-0.6993544316456142</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1966904038607445</v>
+        <v>-0.2092539872056561</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.634469733544854</v>
+        <v>-0.6352386791258641</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.128840071156849</v>
+        <v>-0.125700466439456</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.6174393791663949</v>
+        <v>-0.6175099220286856</v>
       </c>
     </row>
     <row r="57">
@@ -1995,22 +1995,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.8058014214746123</v>
+        <v>0.7600035395630005</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.2690628736185146</v>
+        <v>-0.2720622246425086</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1295163521195792</v>
+        <v>0.1194135912556523</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.4443849298221167</v>
+        <v>-0.4509634932585139</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1689994029145588</v>
+        <v>0.186932844855769</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.4343404305367591</v>
+        <v>-0.4408298984570111</v>
       </c>
     </row>
     <row r="58">
